--- a/File RDG Januari 2022/8.Tabel Nominal RDG Jan_kirim_r3.xlsx
+++ b/File RDG Januari 2022/8.Tabel Nominal RDG Jan_kirim_r3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DKEM\KPM\SOFIE_2020\Opeasional Model\lite_2201\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Kerja Bismillah\DKEM\KajianFPP\File RDG Januari 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D617E31-EA27-48C9-A4EB-AE7E3FEA61C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RDG JAN" sheetId="35" r:id="rId1"/>
@@ -21,7 +22,17 @@
     <sheet name="RDG AGS" sheetId="30" r:id="rId7"/>
     <sheet name="RDG JULI" sheetId="29" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -223,7 +234,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -527,11 +538,11 @@
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="5" builtinId="6"/>
-    <cellStyle name="Comma 2 3 3 2 2" xfId="4"/>
+    <cellStyle name="Comma 2 3 3 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="6"/>
-    <cellStyle name="Normal 3 3" xfId="7"/>
-    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -623,6 +634,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -658,6 +686,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -833,42 +878,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AO46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:AT46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="24" ySplit="5" topLeftCell="Y6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="24" ySplit="5" topLeftCell="Y12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z8" sqref="Z8:AN46"/>
+      <selection pane="bottomRight" activeCell="AQ26" sqref="AQ26:AT26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="9" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="10.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="10.109375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="13" max="14" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="11.28515625" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.33203125" hidden="1" customWidth="1" collapsed="1"/>
     <col min="16" max="19" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="11" hidden="1" customWidth="1" collapsed="1"/>
     <col min="21" max="24" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="26" max="29" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="10.85546875" customWidth="1"/>
-    <col min="31" max="34" width="8.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="10.85546875" customWidth="1"/>
-    <col min="36" max="39" width="8.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="26" max="29" width="9.109375" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="10.88671875" customWidth="1"/>
+    <col min="31" max="34" width="8.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="10.88671875" customWidth="1"/>
+    <col min="36" max="39" width="8.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B1" s="70" t="s">
         <v>40</v>
       </c>
@@ -896,7 +941,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="2:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>59</v>
       </c>
@@ -924,7 +969,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="2:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>63</v>
       </c>
@@ -952,7 +997,7 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B4" s="71" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1056,7 @@
       <c r="AM4" s="69"/>
       <c r="AN4" s="69"/>
     </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B5" s="72"/>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
@@ -1122,7 +1167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1163,7 +1208,7 @@
       <c r="AM6" s="9"/>
       <c r="AN6" s="10"/>
     </row>
-    <row r="7" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
@@ -1206,7 +1251,7 @@
       <c r="AM7" s="17"/>
       <c r="AN7" s="14"/>
     </row>
-    <row r="8" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="18">
         <v>1</v>
       </c>
@@ -1323,7 +1368,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="9" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="18">
         <v>2</v>
       </c>
@@ -1440,7 +1485,7 @@
         <v>62.25</v>
       </c>
     </row>
-    <row r="10" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18">
         <v>3</v>
       </c>
@@ -1557,7 +1602,7 @@
         <v>-7.1</v>
       </c>
     </row>
-    <row r="11" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="18">
         <v>4</v>
       </c>
@@ -1674,7 +1719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18"/>
       <c r="C12" s="23"/>
       <c r="D12" s="14"/>
@@ -1715,7 +1760,7 @@
       <c r="AM12" s="24"/>
       <c r="AN12" s="25"/>
     </row>
-    <row r="13" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -1758,7 +1803,7 @@
       <c r="AM13" s="16"/>
       <c r="AN13" s="17"/>
     </row>
-    <row r="14" spans="2:40" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:40" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="18">
         <v>0</v>
       </c>
@@ -1875,7 +1920,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="15" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="18">
         <v>1</v>
       </c>
@@ -1992,7 +2037,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="18">
         <v>2</v>
       </c>
@@ -2109,7 +2154,7 @@
         <v>14570</v>
       </c>
     </row>
-    <row r="17" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:46" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>22</v>
       </c>
@@ -2152,7 +2197,7 @@
       <c r="AM17" s="33"/>
       <c r="AN17" s="24"/>
     </row>
-    <row r="18" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:46" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="18">
         <v>1</v>
       </c>
@@ -2197,7 +2242,7 @@
       <c r="AM18" s="24"/>
       <c r="AN18" s="24"/>
     </row>
-    <row r="19" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:46" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34"/>
       <c r="C19" s="35" t="s">
         <v>23</v>
@@ -2314,7 +2359,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="20" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:46" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="18"/>
       <c r="C20" s="40"/>
       <c r="D20" s="41" t="s">
@@ -2429,7 +2474,7 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="21" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:46" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="18"/>
       <c r="C21" s="40"/>
       <c r="D21" s="41" t="s">
@@ -2544,7 +2589,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="22" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:46" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="18"/>
       <c r="C22" s="40"/>
       <c r="D22" s="41" t="s">
@@ -2659,7 +2704,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="23" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:46" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="C23" s="40"/>
       <c r="D23" s="41" t="s">
@@ -2774,7 +2819,7 @@
         <v>6.76</v>
       </c>
     </row>
-    <row r="24" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:46" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18"/>
       <c r="C24" s="40"/>
       <c r="D24" s="41" t="s">
@@ -2889,7 +2934,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="25" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:46" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="34"/>
       <c r="C25" s="35"/>
       <c r="D25" s="14"/>
@@ -2929,8 +2974,24 @@
       <c r="AL25" s="39"/>
       <c r="AM25" s="39"/>
       <c r="AN25" s="25"/>
-    </row>
-    <row r="26" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ25">
+        <f>((AE30/Z30)-1)*100</f>
+        <v>32.661306530621403</v>
+      </c>
+      <c r="AR25">
+        <f t="shared" ref="AR25:AT25" si="0">((AF30/AA30)-1)*100</f>
+        <v>12.214194871002814</v>
+      </c>
+      <c r="AS25">
+        <f t="shared" si="0"/>
+        <v>5.2673265860614826</v>
+      </c>
+      <c r="AT25">
+        <f t="shared" si="0"/>
+        <v>9.6476617082583047</v>
+      </c>
+    </row>
+    <row r="26" spans="2:46" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="18"/>
       <c r="C26" s="35" t="s">
         <v>23</v>
@@ -3047,8 +3108,24 @@
         <v>20144.941966588041</v>
       </c>
       <c r="AO26" s="64"/>
-    </row>
-    <row r="27" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ26">
+        <f>((AE31/Z31)-1)*100</f>
+        <v>23.607897753757445</v>
+      </c>
+      <c r="AR26">
+        <f t="shared" ref="AR26:AT26" si="1">((AF31/AA31)-1)*100</f>
+        <v>5.2492070091124221</v>
+      </c>
+      <c r="AS26">
+        <f t="shared" si="1"/>
+        <v>7.6432786929281127</v>
+      </c>
+      <c r="AT26">
+        <f t="shared" si="1"/>
+        <v>6.1957503437065853</v>
+      </c>
+    </row>
+    <row r="27" spans="2:46" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="18"/>
       <c r="C27" s="40"/>
       <c r="D27" s="41" t="s">
@@ -3164,7 +3241,7 @@
       </c>
       <c r="AO27" s="64"/>
     </row>
-    <row r="28" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:46" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="18"/>
       <c r="C28" s="40"/>
       <c r="D28" s="41" t="s">
@@ -3280,7 +3357,7 @@
       </c>
       <c r="AO28" s="64"/>
     </row>
-    <row r="29" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:46" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="18"/>
       <c r="C29" s="40"/>
       <c r="D29" s="41" t="s">
@@ -3396,7 +3473,7 @@
       </c>
       <c r="AO29" s="64"/>
     </row>
-    <row r="30" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:46" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="18"/>
       <c r="C30" s="40"/>
       <c r="D30" s="41" t="s">
@@ -3512,7 +3589,7 @@
       </c>
       <c r="AO30" s="64"/>
     </row>
-    <row r="31" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:46" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="18"/>
       <c r="C31" s="40"/>
       <c r="D31" s="41" t="s">
@@ -3628,7 +3705,7 @@
       </c>
       <c r="AO31" s="64"/>
     </row>
-    <row r="32" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:46" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
       <c r="C32" s="40"/>
       <c r="D32" s="41"/>
@@ -3670,7 +3747,7 @@
       <c r="AN32" s="37"/>
       <c r="AO32" s="2"/>
     </row>
-    <row r="33" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18"/>
       <c r="C33" s="35" t="s">
         <v>23</v>
@@ -3788,7 +3865,7 @@
       </c>
       <c r="AO33" s="63"/>
     </row>
-    <row r="34" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18"/>
       <c r="C34" s="40"/>
       <c r="D34" s="41" t="s">
@@ -3904,7 +3981,7 @@
       </c>
       <c r="AO34" s="63"/>
     </row>
-    <row r="35" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18"/>
       <c r="C35" s="40"/>
       <c r="D35" s="41" t="s">
@@ -4020,7 +4097,7 @@
       </c>
       <c r="AO35" s="63"/>
     </row>
-    <row r="36" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="18"/>
       <c r="C36" s="40"/>
       <c r="D36" s="41" t="s">
@@ -4136,7 +4213,7 @@
       </c>
       <c r="AO36" s="63"/>
     </row>
-    <row r="37" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="18"/>
       <c r="C37" s="40"/>
       <c r="D37" s="41" t="s">
@@ -4252,7 +4329,7 @@
       </c>
       <c r="AO37" s="63"/>
     </row>
-    <row r="38" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="18"/>
       <c r="C38" s="40"/>
       <c r="D38" s="41" t="s">
@@ -4368,7 +4445,7 @@
       </c>
       <c r="AO38" s="63"/>
     </row>
-    <row r="39" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="18"/>
       <c r="C39" s="40"/>
       <c r="D39" s="41" t="s">
@@ -4483,7 +4560,7 @@
         <v>30.308792817639073</v>
       </c>
     </row>
-    <row r="40" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="18"/>
       <c r="C40" s="40"/>
       <c r="D40" s="41"/>
@@ -4524,7 +4601,7 @@
       <c r="AM40" s="38"/>
       <c r="AN40" s="44"/>
     </row>
-    <row r="41" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="18">
         <v>2</v>
       </c>
@@ -4641,7 +4718,7 @@
         <v>31.11475282754386</v>
       </c>
     </row>
-    <row r="42" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="18"/>
       <c r="C42" s="23"/>
       <c r="D42" s="14"/>
@@ -4682,7 +4759,7 @@
       <c r="AM42" s="38"/>
       <c r="AN42" s="42"/>
     </row>
-    <row r="43" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="18">
         <v>3</v>
       </c>
@@ -4799,7 +4876,7 @@
         <v>4.912111560543277</v>
       </c>
     </row>
-    <row r="44" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="47"/>
       <c r="C44" s="48" t="s">
         <v>37</v>
@@ -4914,7 +4991,7 @@
         <v>5.7859404379831165</v>
       </c>
     </row>
-    <row r="45" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="50"/>
       <c r="C45" s="51" t="s">
         <v>38</v>
@@ -5029,7 +5106,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="46" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="52"/>
       <c r="C46" s="48" t="s">
         <v>39</v>
@@ -5163,7 +5240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AO46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5174,31 +5251,31 @@
       <selection pane="bottomRight" activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="9" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="10.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="10.109375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="13" max="14" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="11.28515625" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.33203125" hidden="1" customWidth="1" collapsed="1"/>
     <col min="16" max="19" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="11" hidden="1" customWidth="1" collapsed="1"/>
     <col min="21" max="24" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="26" max="29" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="10.85546875" customWidth="1"/>
-    <col min="31" max="34" width="8.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="10.85546875" customWidth="1"/>
-    <col min="36" max="39" width="8.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="26" max="29" width="9.109375" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="10.88671875" customWidth="1"/>
+    <col min="31" max="34" width="8.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="10.88671875" customWidth="1"/>
+    <col min="36" max="39" width="8.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B1" s="70" t="s">
         <v>40</v>
       </c>
@@ -5226,7 +5303,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="2:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>59</v>
       </c>
@@ -5254,7 +5331,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="2:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>62</v>
       </c>
@@ -5282,7 +5359,7 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B4" s="71" t="s">
         <v>0</v>
       </c>
@@ -5341,7 +5418,7 @@
       <c r="AM4" s="69"/>
       <c r="AN4" s="69"/>
     </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B5" s="72"/>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
@@ -5452,7 +5529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -5493,7 +5570,7 @@
       <c r="AM6" s="9"/>
       <c r="AN6" s="10"/>
     </row>
-    <row r="7" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
@@ -5536,7 +5613,7 @@
       <c r="AM7" s="17"/>
       <c r="AN7" s="14"/>
     </row>
-    <row r="8" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="18">
         <v>1</v>
       </c>
@@ -5653,7 +5730,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="9" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="18">
         <v>2</v>
       </c>
@@ -5770,7 +5847,7 @@
         <v>62.25</v>
       </c>
     </row>
-    <row r="10" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18">
         <v>3</v>
       </c>
@@ -5887,7 +5964,7 @@
         <v>-7.1</v>
       </c>
     </row>
-    <row r="11" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="18">
         <v>4</v>
       </c>
@@ -6004,7 +6081,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="12" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18"/>
       <c r="C12" s="23"/>
       <c r="D12" s="14"/>
@@ -6045,7 +6122,7 @@
       <c r="AM12" s="24"/>
       <c r="AN12" s="25"/>
     </row>
-    <row r="13" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -6088,7 +6165,7 @@
       <c r="AM13" s="16"/>
       <c r="AN13" s="17"/>
     </row>
-    <row r="14" spans="2:40" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:40" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="18">
         <v>0</v>
       </c>
@@ -6205,7 +6282,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="15" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="18">
         <v>1</v>
       </c>
@@ -6322,7 +6399,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="18">
         <v>2</v>
       </c>
@@ -6439,7 +6516,7 @@
         <v>14550</v>
       </c>
     </row>
-    <row r="17" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>22</v>
       </c>
@@ -6482,7 +6559,7 @@
       <c r="AM17" s="33"/>
       <c r="AN17" s="24"/>
     </row>
-    <row r="18" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="18">
         <v>1</v>
       </c>
@@ -6527,7 +6604,7 @@
       <c r="AM18" s="24"/>
       <c r="AN18" s="24"/>
     </row>
-    <row r="19" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34"/>
       <c r="C19" s="35" t="s">
         <v>23</v>
@@ -6644,7 +6721,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="20" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="18"/>
       <c r="C20" s="40"/>
       <c r="D20" s="41" t="s">
@@ -6759,7 +6836,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="21" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="18"/>
       <c r="C21" s="40"/>
       <c r="D21" s="41" t="s">
@@ -6874,7 +6951,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="18"/>
       <c r="C22" s="40"/>
       <c r="D22" s="41" t="s">
@@ -6989,7 +7066,7 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="23" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="C23" s="40"/>
       <c r="D23" s="41" t="s">
@@ -7104,7 +7181,7 @@
         <v>6.77</v>
       </c>
     </row>
-    <row r="24" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18"/>
       <c r="C24" s="40"/>
       <c r="D24" s="41" t="s">
@@ -7219,7 +7296,7 @@
         <v>8.43</v>
       </c>
     </row>
-    <row r="25" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="34"/>
       <c r="C25" s="35"/>
       <c r="D25" s="14"/>
@@ -7260,7 +7337,7 @@
       <c r="AM25" s="39"/>
       <c r="AN25" s="25"/>
     </row>
-    <row r="26" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="18"/>
       <c r="C26" s="35" t="s">
         <v>23</v>
@@ -7378,7 +7455,7 @@
       </c>
       <c r="AO26" s="64"/>
     </row>
-    <row r="27" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="18"/>
       <c r="C27" s="40"/>
       <c r="D27" s="41" t="s">
@@ -7494,7 +7571,7 @@
       </c>
       <c r="AO27" s="64"/>
     </row>
-    <row r="28" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="18"/>
       <c r="C28" s="40"/>
       <c r="D28" s="41" t="s">
@@ -7610,7 +7687,7 @@
       </c>
       <c r="AO28" s="64"/>
     </row>
-    <row r="29" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="18"/>
       <c r="C29" s="40"/>
       <c r="D29" s="41" t="s">
@@ -7726,7 +7803,7 @@
       </c>
       <c r="AO29" s="64"/>
     </row>
-    <row r="30" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="18"/>
       <c r="C30" s="40"/>
       <c r="D30" s="41" t="s">
@@ -7842,7 +7919,7 @@
       </c>
       <c r="AO30" s="64"/>
     </row>
-    <row r="31" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="18"/>
       <c r="C31" s="40"/>
       <c r="D31" s="41" t="s">
@@ -7958,7 +8035,7 @@
       </c>
       <c r="AO31" s="64"/>
     </row>
-    <row r="32" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
       <c r="C32" s="40"/>
       <c r="D32" s="41"/>
@@ -8000,7 +8077,7 @@
       <c r="AN32" s="37"/>
       <c r="AO32" s="2"/>
     </row>
-    <row r="33" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18"/>
       <c r="C33" s="35" t="s">
         <v>23</v>
@@ -8118,7 +8195,7 @@
       </c>
       <c r="AO33" s="63"/>
     </row>
-    <row r="34" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18"/>
       <c r="C34" s="40"/>
       <c r="D34" s="41" t="s">
@@ -8234,7 +8311,7 @@
       </c>
       <c r="AO34" s="63"/>
     </row>
-    <row r="35" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18"/>
       <c r="C35" s="40"/>
       <c r="D35" s="41" t="s">
@@ -8350,7 +8427,7 @@
       </c>
       <c r="AO35" s="63"/>
     </row>
-    <row r="36" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="18"/>
       <c r="C36" s="40"/>
       <c r="D36" s="41" t="s">
@@ -8466,7 +8543,7 @@
       </c>
       <c r="AO36" s="63"/>
     </row>
-    <row r="37" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="18"/>
       <c r="C37" s="40"/>
       <c r="D37" s="41" t="s">
@@ -8582,7 +8659,7 @@
       </c>
       <c r="AO37" s="63"/>
     </row>
-    <row r="38" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="18"/>
       <c r="C38" s="40"/>
       <c r="D38" s="41" t="s">
@@ -8698,7 +8775,7 @@
       </c>
       <c r="AO38" s="63"/>
     </row>
-    <row r="39" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="18"/>
       <c r="C39" s="40"/>
       <c r="D39" s="41" t="s">
@@ -8813,7 +8890,7 @@
         <v>30.268525527217037</v>
       </c>
     </row>
-    <row r="40" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="18"/>
       <c r="C40" s="40"/>
       <c r="D40" s="41"/>
@@ -8854,7 +8931,7 @@
       <c r="AM40" s="38"/>
       <c r="AN40" s="44"/>
     </row>
-    <row r="41" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="18">
         <v>2</v>
       </c>
@@ -8971,7 +9048,7 @@
         <v>31.132066525632798</v>
       </c>
     </row>
-    <row r="42" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="18"/>
       <c r="C42" s="23"/>
       <c r="D42" s="14"/>
@@ -9012,7 +9089,7 @@
       <c r="AM42" s="38"/>
       <c r="AN42" s="42"/>
     </row>
-    <row r="43" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="18">
         <v>3</v>
       </c>
@@ -9129,7 +9206,7 @@
         <v>4.9721115605432775</v>
       </c>
     </row>
-    <row r="44" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="47"/>
       <c r="C44" s="48" t="s">
         <v>37</v>
@@ -9244,7 +9321,7 @@
         <v>5.8584753499442597</v>
       </c>
     </row>
-    <row r="45" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="50"/>
       <c r="C45" s="51" t="s">
         <v>38</v>
@@ -9359,7 +9436,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="46" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="52"/>
       <c r="C46" s="48" t="s">
         <v>39</v>
@@ -9493,7 +9570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AO46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -9504,31 +9581,31 @@
       <selection pane="bottomRight" activeCell="Y8" sqref="Y8:AN46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="9" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="10.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="10.109375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="13" max="14" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" hidden="1" customWidth="1"/>
     <col min="16" max="19" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="11" hidden="1" customWidth="1"/>
     <col min="21" max="24" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="26" max="29" width="9.140625" outlineLevel="1"/>
-    <col min="30" max="30" width="10.85546875" customWidth="1"/>
-    <col min="31" max="34" width="8.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="10.85546875" customWidth="1"/>
-    <col min="36" max="39" width="8.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="26" max="29" width="9.109375" outlineLevel="1"/>
+    <col min="30" max="30" width="10.88671875" customWidth="1"/>
+    <col min="31" max="34" width="8.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="10.88671875" customWidth="1"/>
+    <col min="36" max="39" width="8.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B1" s="70" t="s">
         <v>40</v>
       </c>
@@ -9556,7 +9633,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="2:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>57</v>
       </c>
@@ -9584,7 +9661,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="2:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>58</v>
       </c>
@@ -9612,7 +9689,7 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B4" s="71" t="s">
         <v>0</v>
       </c>
@@ -9671,7 +9748,7 @@
       <c r="AM4" s="69"/>
       <c r="AN4" s="69"/>
     </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B5" s="72"/>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
@@ -9782,7 +9859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -9823,7 +9900,7 @@
       <c r="AM6" s="9"/>
       <c r="AN6" s="10"/>
     </row>
-    <row r="7" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
@@ -9866,7 +9943,7 @@
       <c r="AM7" s="17"/>
       <c r="AN7" s="14"/>
     </row>
-    <row r="8" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="18">
         <v>1</v>
       </c>
@@ -9983,7 +10060,7 @@
         <v>3.6386331401632441</v>
       </c>
     </row>
-    <row r="9" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="18">
         <v>2</v>
       </c>
@@ -10100,7 +10177,7 @@
         <v>62.25</v>
       </c>
     </row>
-    <row r="10" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18">
         <v>3</v>
       </c>
@@ -10217,7 +10294,7 @@
         <v>-7.1051111797503745</v>
       </c>
     </row>
-    <row r="11" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="18">
         <v>4</v>
       </c>
@@ -10334,7 +10411,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18"/>
       <c r="C12" s="23"/>
       <c r="D12" s="14"/>
@@ -10375,7 +10452,7 @@
       <c r="AM12" s="24"/>
       <c r="AN12" s="25"/>
     </row>
-    <row r="13" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -10418,7 +10495,7 @@
       <c r="AM13" s="16"/>
       <c r="AN13" s="17"/>
     </row>
-    <row r="14" spans="2:40" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:40" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="18">
         <v>1</v>
       </c>
@@ -10535,7 +10612,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="15" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="18">
         <v>1</v>
       </c>
@@ -10652,7 +10729,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="18">
         <v>2</v>
       </c>
@@ -10769,7 +10846,7 @@
         <v>14440</v>
       </c>
     </row>
-    <row r="17" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>22</v>
       </c>
@@ -10812,7 +10889,7 @@
       <c r="AM17" s="33"/>
       <c r="AN17" s="24"/>
     </row>
-    <row r="18" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="18">
         <v>1</v>
       </c>
@@ -10857,7 +10934,7 @@
       <c r="AM18" s="24"/>
       <c r="AN18" s="24"/>
     </row>
-    <row r="19" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34"/>
       <c r="C19" s="35" t="s">
         <v>23</v>
@@ -10974,7 +11051,7 @@
         <v>5.2049464864450501</v>
       </c>
     </row>
-    <row r="20" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="18"/>
       <c r="C20" s="40"/>
       <c r="D20" s="41" t="s">
@@ -11089,7 +11166,7 @@
         <v>5.1098689999628188</v>
       </c>
     </row>
-    <row r="21" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="18"/>
       <c r="C21" s="40"/>
       <c r="D21" s="41" t="s">
@@ -11204,7 +11281,7 @@
         <v>2.4383188611571738</v>
       </c>
     </row>
-    <row r="22" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="18"/>
       <c r="C22" s="40"/>
       <c r="D22" s="41" t="s">
@@ -11319,7 +11396,7 @@
         <v>7.7285627502069243</v>
       </c>
     </row>
-    <row r="23" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="C23" s="40"/>
       <c r="D23" s="41" t="s">
@@ -11434,7 +11511,7 @@
         <v>6.5412931285530718</v>
       </c>
     </row>
-    <row r="24" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18"/>
       <c r="C24" s="40"/>
       <c r="D24" s="41" t="s">
@@ -11549,7 +11626,7 @@
         <v>8.2567816283139805</v>
       </c>
     </row>
-    <row r="25" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="34"/>
       <c r="C25" s="35"/>
       <c r="D25" s="14"/>
@@ -11590,7 +11667,7 @@
       <c r="AM25" s="39"/>
       <c r="AN25" s="25"/>
     </row>
-    <row r="26" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="18"/>
       <c r="C26" s="35" t="s">
         <v>23</v>
@@ -11708,7 +11785,7 @@
       </c>
       <c r="AO26" s="64"/>
     </row>
-    <row r="27" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="18"/>
       <c r="C27" s="40"/>
       <c r="D27" s="41" t="s">
@@ -11824,7 +11901,7 @@
       </c>
       <c r="AO27" s="64"/>
     </row>
-    <row r="28" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="18"/>
       <c r="C28" s="40"/>
       <c r="D28" s="41" t="s">
@@ -11940,7 +12017,7 @@
       </c>
       <c r="AO28" s="64"/>
     </row>
-    <row r="29" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="18"/>
       <c r="C29" s="40"/>
       <c r="D29" s="41" t="s">
@@ -12056,7 +12133,7 @@
       </c>
       <c r="AO29" s="64"/>
     </row>
-    <row r="30" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="18"/>
       <c r="C30" s="40"/>
       <c r="D30" s="41" t="s">
@@ -12172,7 +12249,7 @@
       </c>
       <c r="AO30" s="64"/>
     </row>
-    <row r="31" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="18"/>
       <c r="C31" s="40"/>
       <c r="D31" s="41" t="s">
@@ -12288,7 +12365,7 @@
       </c>
       <c r="AO31" s="64"/>
     </row>
-    <row r="32" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
       <c r="C32" s="40"/>
       <c r="D32" s="41"/>
@@ -12330,7 +12407,7 @@
       <c r="AN32" s="37"/>
       <c r="AO32" s="2"/>
     </row>
-    <row r="33" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18"/>
       <c r="C33" s="35" t="s">
         <v>23</v>
@@ -12448,7 +12525,7 @@
       </c>
       <c r="AO33" s="63"/>
     </row>
-    <row r="34" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18"/>
       <c r="C34" s="40"/>
       <c r="D34" s="41" t="s">
@@ -12564,7 +12641,7 @@
       </c>
       <c r="AO34" s="63"/>
     </row>
-    <row r="35" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18"/>
       <c r="C35" s="40"/>
       <c r="D35" s="41" t="s">
@@ -12680,7 +12757,7 @@
       </c>
       <c r="AO35" s="63"/>
     </row>
-    <row r="36" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="18"/>
       <c r="C36" s="40"/>
       <c r="D36" s="41" t="s">
@@ -12796,7 +12873,7 @@
       </c>
       <c r="AO36" s="63"/>
     </row>
-    <row r="37" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="18"/>
       <c r="C37" s="40"/>
       <c r="D37" s="41" t="s">
@@ -12912,7 +12989,7 @@
       </c>
       <c r="AO37" s="63"/>
     </row>
-    <row r="38" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="18"/>
       <c r="C38" s="40"/>
       <c r="D38" s="41" t="s">
@@ -13028,7 +13105,7 @@
       </c>
       <c r="AO38" s="63"/>
     </row>
-    <row r="39" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="18"/>
       <c r="C39" s="40"/>
       <c r="D39" s="41" t="s">
@@ -13143,7 +13220,7 @@
         <v>39.171135951216058</v>
       </c>
     </row>
-    <row r="40" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="18"/>
       <c r="C40" s="40"/>
       <c r="D40" s="41"/>
@@ -13184,7 +13261,7 @@
       <c r="AM40" s="38"/>
       <c r="AN40" s="44"/>
     </row>
-    <row r="41" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="18">
         <v>2</v>
       </c>
@@ -13301,7 +13378,7 @@
         <v>30.833410756165954</v>
       </c>
     </row>
-    <row r="42" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="18"/>
       <c r="C42" s="23"/>
       <c r="D42" s="14"/>
@@ -13342,7 +13419,7 @@
       <c r="AM42" s="38"/>
       <c r="AN42" s="42"/>
     </row>
-    <row r="43" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="18">
         <v>3</v>
       </c>
@@ -13459,7 +13536,7 @@
         <v>4.8121115605432774</v>
       </c>
     </row>
-    <row r="44" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="47"/>
       <c r="C44" s="48" t="s">
         <v>37</v>
@@ -13574,7 +13651,7 @@
         <v>5.6679635861312656</v>
       </c>
     </row>
-    <row r="45" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="50"/>
       <c r="C45" s="51" t="s">
         <v>38</v>
@@ -13689,7 +13766,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="46" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="52"/>
       <c r="C46" s="48" t="s">
         <v>39</v>
@@ -13823,7 +13900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AO46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -13834,31 +13911,31 @@
       <selection pane="bottomRight" activeCell="Z8" sqref="Z8:AN11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="9" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="10.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="10.109375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="13" max="14" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" hidden="1" customWidth="1"/>
     <col min="16" max="19" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="11" hidden="1" customWidth="1"/>
     <col min="21" max="24" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="26" max="29" width="9.140625" outlineLevel="1"/>
-    <col min="30" max="30" width="10.85546875" customWidth="1"/>
-    <col min="31" max="34" width="8.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="10.85546875" customWidth="1"/>
-    <col min="36" max="39" width="8.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="26" max="29" width="9.109375" outlineLevel="1"/>
+    <col min="30" max="30" width="10.88671875" customWidth="1"/>
+    <col min="31" max="34" width="8.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="10.88671875" customWidth="1"/>
+    <col min="36" max="39" width="8.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B1" s="70" t="s">
         <v>40</v>
       </c>
@@ -13886,7 +13963,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="2:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>55</v>
       </c>
@@ -13914,7 +13991,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="2:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>56</v>
       </c>
@@ -13942,7 +14019,7 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B4" s="71" t="s">
         <v>0</v>
       </c>
@@ -14001,7 +14078,7 @@
       <c r="AM4" s="69"/>
       <c r="AN4" s="69"/>
     </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B5" s="72"/>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
@@ -14112,7 +14189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -14153,7 +14230,7 @@
       <c r="AM6" s="9"/>
       <c r="AN6" s="10"/>
     </row>
-    <row r="7" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
@@ -14196,7 +14273,7 @@
       <c r="AM7" s="17"/>
       <c r="AN7" s="14"/>
     </row>
-    <row r="8" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="18">
         <v>1</v>
       </c>
@@ -14313,7 +14390,7 @@
         <v>3.6311311401632187</v>
       </c>
     </row>
-    <row r="9" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="18">
         <v>2</v>
       </c>
@@ -14430,7 +14507,7 @@
         <v>62.25</v>
       </c>
     </row>
-    <row r="10" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18">
         <v>3</v>
       </c>
@@ -14547,7 +14624,7 @@
         <v>-7.1051111797503728</v>
       </c>
     </row>
-    <row r="11" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="18">
         <v>4</v>
       </c>
@@ -14664,7 +14741,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18"/>
       <c r="C12" s="23"/>
       <c r="D12" s="14"/>
@@ -14705,7 +14782,7 @@
       <c r="AM12" s="24"/>
       <c r="AN12" s="25"/>
     </row>
-    <row r="13" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -14748,7 +14825,7 @@
       <c r="AM13" s="16"/>
       <c r="AN13" s="17"/>
     </row>
-    <row r="14" spans="2:40" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:40" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="18">
         <v>1</v>
       </c>
@@ -14865,7 +14942,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="15" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="18">
         <v>1</v>
       </c>
@@ -14982,7 +15059,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="18">
         <v>2</v>
       </c>
@@ -15099,7 +15176,7 @@
         <v>14350</v>
       </c>
     </row>
-    <row r="17" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>22</v>
       </c>
@@ -15142,7 +15219,7 @@
       <c r="AM17" s="33"/>
       <c r="AN17" s="24"/>
     </row>
-    <row r="18" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="18">
         <v>1</v>
       </c>
@@ -15187,7 +15264,7 @@
       <c r="AM18" s="24"/>
       <c r="AN18" s="24"/>
     </row>
-    <row r="19" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34"/>
       <c r="C19" s="35" t="s">
         <v>23</v>
@@ -15304,7 +15381,7 @@
         <v>5.2098579774346954</v>
       </c>
     </row>
-    <row r="20" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="18"/>
       <c r="C20" s="40"/>
       <c r="D20" s="41" t="s">
@@ -15419,7 +15496,7 @@
         <v>5.1148198103795561</v>
       </c>
     </row>
-    <row r="21" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="18"/>
       <c r="C21" s="40"/>
       <c r="D21" s="41" t="s">
@@ -15534,7 +15611,7 @@
         <v>2.4952163642675051</v>
       </c>
     </row>
-    <row r="22" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="18"/>
       <c r="C22" s="40"/>
       <c r="D22" s="41" t="s">
@@ -15649,7 +15726,7 @@
         <v>7.8433004405323858</v>
       </c>
     </row>
-    <row r="23" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="C23" s="40"/>
       <c r="D23" s="41" t="s">
@@ -15764,7 +15841,7 @@
         <v>6.5661521244738896</v>
       </c>
     </row>
-    <row r="24" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18"/>
       <c r="C24" s="40"/>
       <c r="D24" s="41" t="s">
@@ -15879,7 +15956,7 @@
         <v>8.5736590066087803</v>
       </c>
     </row>
-    <row r="25" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="34"/>
       <c r="C25" s="35"/>
       <c r="D25" s="14"/>
@@ -15920,7 +15997,7 @@
       <c r="AM25" s="39"/>
       <c r="AN25" s="25"/>
     </row>
-    <row r="26" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="18"/>
       <c r="C26" s="35" t="s">
         <v>23</v>
@@ -16038,7 +16115,7 @@
       </c>
       <c r="AO26" s="64"/>
     </row>
-    <row r="27" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="18"/>
       <c r="C27" s="40"/>
       <c r="D27" s="41" t="s">
@@ -16154,7 +16231,7 @@
       </c>
       <c r="AO27" s="64"/>
     </row>
-    <row r="28" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="18"/>
       <c r="C28" s="40"/>
       <c r="D28" s="41" t="s">
@@ -16270,7 +16347,7 @@
       </c>
       <c r="AO28" s="64"/>
     </row>
-    <row r="29" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="18"/>
       <c r="C29" s="40"/>
       <c r="D29" s="41" t="s">
@@ -16386,7 +16463,7 @@
       </c>
       <c r="AO29" s="64"/>
     </row>
-    <row r="30" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="18"/>
       <c r="C30" s="40"/>
       <c r="D30" s="41" t="s">
@@ -16502,7 +16579,7 @@
       </c>
       <c r="AO30" s="64"/>
     </row>
-    <row r="31" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="18"/>
       <c r="C31" s="40"/>
       <c r="D31" s="41" t="s">
@@ -16618,7 +16695,7 @@
       </c>
       <c r="AO31" s="64"/>
     </row>
-    <row r="32" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
       <c r="C32" s="40"/>
       <c r="D32" s="41"/>
@@ -16660,7 +16737,7 @@
       <c r="AN32" s="37"/>
       <c r="AO32" s="2"/>
     </row>
-    <row r="33" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18"/>
       <c r="C33" s="35" t="s">
         <v>23</v>
@@ -16778,7 +16855,7 @@
       </c>
       <c r="AO33" s="63"/>
     </row>
-    <row r="34" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18"/>
       <c r="C34" s="40"/>
       <c r="D34" s="41" t="s">
@@ -16894,7 +16971,7 @@
       </c>
       <c r="AO34" s="63"/>
     </row>
-    <row r="35" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18"/>
       <c r="C35" s="40"/>
       <c r="D35" s="41" t="s">
@@ -17010,7 +17087,7 @@
       </c>
       <c r="AO35" s="63"/>
     </row>
-    <row r="36" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="18"/>
       <c r="C36" s="40"/>
       <c r="D36" s="41" t="s">
@@ -17126,7 +17203,7 @@
       </c>
       <c r="AO36" s="63"/>
     </row>
-    <row r="37" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="18"/>
       <c r="C37" s="40"/>
       <c r="D37" s="41" t="s">
@@ -17242,7 +17319,7 @@
       </c>
       <c r="AO37" s="63"/>
     </row>
-    <row r="38" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="18"/>
       <c r="C38" s="40"/>
       <c r="D38" s="41" t="s">
@@ -17358,7 +17435,7 @@
       </c>
       <c r="AO38" s="63"/>
     </row>
-    <row r="39" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="18"/>
       <c r="C39" s="40"/>
       <c r="D39" s="41" t="s">
@@ -17473,7 +17550,7 @@
         <v>34.125000732036824</v>
       </c>
     </row>
-    <row r="40" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="18"/>
       <c r="C40" s="40"/>
       <c r="D40" s="41"/>
@@ -17514,7 +17591,7 @@
       <c r="AM40" s="38"/>
       <c r="AN40" s="44"/>
     </row>
-    <row r="41" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="18">
         <v>2</v>
       </c>
@@ -17631,7 +17708,7 @@
         <v>31.061026931729998</v>
       </c>
     </row>
-    <row r="42" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="18"/>
       <c r="C42" s="23"/>
       <c r="D42" s="14"/>
@@ -17672,7 +17749,7 @@
       <c r="AM42" s="38"/>
       <c r="AN42" s="42"/>
     </row>
-    <row r="43" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="18">
         <v>3</v>
       </c>
@@ -17789,7 +17866,7 @@
         <v>4.7876043205432772</v>
       </c>
     </row>
-    <row r="44" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="47"/>
       <c r="C44" s="48" t="s">
         <v>37</v>
@@ -17904,7 +17981,7 @@
         <v>5.640036916428774</v>
       </c>
     </row>
-    <row r="45" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="50"/>
       <c r="C45" s="51" t="s">
         <v>38</v>
@@ -18019,7 +18096,7 @@
         <v>3.0009000000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="52"/>
       <c r="C46" s="48" t="s">
         <v>39</v>
@@ -18153,7 +18230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:AO46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -18164,31 +18241,31 @@
       <selection pane="bottomRight" activeCell="Z8" sqref="Z8:AN46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="9" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="10.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="10.109375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="13" max="14" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" hidden="1" customWidth="1"/>
     <col min="16" max="19" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="11" hidden="1" customWidth="1"/>
     <col min="21" max="24" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="26" max="29" width="9.140625" outlineLevel="1"/>
-    <col min="30" max="30" width="10.85546875" customWidth="1"/>
-    <col min="31" max="34" width="8.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="10.85546875" customWidth="1"/>
-    <col min="36" max="39" width="8.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="10.85546875" customWidth="1"/>
+    <col min="25" max="25" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="26" max="29" width="9.109375" outlineLevel="1"/>
+    <col min="30" max="30" width="10.88671875" customWidth="1"/>
+    <col min="31" max="34" width="8.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="10.88671875" customWidth="1"/>
+    <col min="36" max="39" width="8.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B1" s="70" t="s">
         <v>40</v>
       </c>
@@ -18216,7 +18293,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="2:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
@@ -18244,7 +18321,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="2:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>54</v>
       </c>
@@ -18272,7 +18349,7 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B4" s="71" t="s">
         <v>0</v>
       </c>
@@ -18331,7 +18408,7 @@
       <c r="AM4" s="69"/>
       <c r="AN4" s="69"/>
     </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B5" s="72"/>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
@@ -18442,7 +18519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -18483,7 +18560,7 @@
       <c r="AM6" s="9"/>
       <c r="AN6" s="10"/>
     </row>
-    <row r="7" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
@@ -18526,7 +18603,7 @@
       <c r="AM7" s="17"/>
       <c r="AN7" s="14"/>
     </row>
-    <row r="8" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="18">
         <v>1</v>
       </c>
@@ -18643,7 +18720,7 @@
         <v>3.6450000000000005</v>
       </c>
     </row>
-    <row r="9" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="18">
         <v>2</v>
       </c>
@@ -18760,7 +18837,7 @@
         <v>62.25</v>
       </c>
     </row>
-    <row r="10" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18">
         <v>3</v>
       </c>
@@ -18877,7 +18954,7 @@
         <v>-7.0350000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="18">
         <v>4</v>
       </c>
@@ -18994,7 +19071,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18"/>
       <c r="C12" s="23"/>
       <c r="D12" s="14"/>
@@ -19035,7 +19112,7 @@
       <c r="AM12" s="24"/>
       <c r="AN12" s="25"/>
     </row>
-    <row r="13" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -19078,7 +19155,7 @@
       <c r="AM13" s="16"/>
       <c r="AN13" s="17"/>
     </row>
-    <row r="14" spans="2:40" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:40" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="18">
         <v>1</v>
       </c>
@@ -19195,7 +19272,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="15" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="18">
         <v>1</v>
       </c>
@@ -19312,7 +19389,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="18">
         <v>2</v>
       </c>
@@ -19429,7 +19506,7 @@
         <v>14219.999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>22</v>
       </c>
@@ -19472,7 +19549,7 @@
       <c r="AM17" s="33"/>
       <c r="AN17" s="24"/>
     </row>
-    <row r="18" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="18">
         <v>1</v>
       </c>
@@ -19517,7 +19594,7 @@
       <c r="AM18" s="24"/>
       <c r="AN18" s="24"/>
     </row>
-    <row r="19" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34"/>
       <c r="C19" s="35" t="s">
         <v>23</v>
@@ -19634,7 +19711,7 @@
         <v>5.2136145052619876</v>
       </c>
     </row>
-    <row r="20" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="18"/>
       <c r="C20" s="40"/>
       <c r="D20" s="41" t="s">
@@ -19749,7 +19826,7 @@
         <v>5.1384607799541682</v>
       </c>
     </row>
-    <row r="21" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="18"/>
       <c r="C21" s="40"/>
       <c r="D21" s="41" t="s">
@@ -19864,7 +19941,7 @@
         <v>2.6006408760053557</v>
       </c>
     </row>
-    <row r="22" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="18"/>
       <c r="C22" s="40"/>
       <c r="D22" s="41" t="s">
@@ -19979,7 +20056,7 @@
         <v>5.2806864562647826</v>
       </c>
     </row>
-    <row r="23" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="C23" s="40"/>
       <c r="D23" s="41" t="s">
@@ -20094,7 +20171,7 @@
         <v>6.7304400608726445</v>
       </c>
     </row>
-    <row r="24" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18"/>
       <c r="C24" s="40"/>
       <c r="D24" s="41" t="s">
@@ -20209,7 +20286,7 @@
         <v>7.1086686365532614</v>
       </c>
     </row>
-    <row r="25" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="34"/>
       <c r="C25" s="35"/>
       <c r="D25" s="14"/>
@@ -20250,7 +20327,7 @@
       <c r="AM25" s="39"/>
       <c r="AN25" s="25"/>
     </row>
-    <row r="26" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="18"/>
       <c r="C26" s="35" t="s">
         <v>23</v>
@@ -20368,7 +20445,7 @@
       </c>
       <c r="AO26" s="64"/>
     </row>
-    <row r="27" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="18"/>
       <c r="C27" s="40"/>
       <c r="D27" s="41" t="s">
@@ -20484,7 +20561,7 @@
       </c>
       <c r="AO27" s="64"/>
     </row>
-    <row r="28" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="18"/>
       <c r="C28" s="40"/>
       <c r="D28" s="41" t="s">
@@ -20600,7 +20677,7 @@
       </c>
       <c r="AO28" s="64"/>
     </row>
-    <row r="29" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="18"/>
       <c r="C29" s="40"/>
       <c r="D29" s="41" t="s">
@@ -20716,7 +20793,7 @@
       </c>
       <c r="AO29" s="64"/>
     </row>
-    <row r="30" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="18"/>
       <c r="C30" s="40"/>
       <c r="D30" s="41" t="s">
@@ -20832,7 +20909,7 @@
       </c>
       <c r="AO30" s="64"/>
     </row>
-    <row r="31" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="18"/>
       <c r="C31" s="40"/>
       <c r="D31" s="41" t="s">
@@ -20948,7 +21025,7 @@
       </c>
       <c r="AO31" s="64"/>
     </row>
-    <row r="32" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
       <c r="C32" s="40"/>
       <c r="D32" s="41"/>
@@ -20990,7 +21067,7 @@
       <c r="AN32" s="37"/>
       <c r="AO32" s="2"/>
     </row>
-    <row r="33" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18"/>
       <c r="C33" s="35" t="s">
         <v>23</v>
@@ -21108,7 +21185,7 @@
       </c>
       <c r="AO33" s="63"/>
     </row>
-    <row r="34" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18"/>
       <c r="C34" s="40"/>
       <c r="D34" s="41" t="s">
@@ -21224,7 +21301,7 @@
       </c>
       <c r="AO34" s="63"/>
     </row>
-    <row r="35" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18"/>
       <c r="C35" s="40"/>
       <c r="D35" s="41" t="s">
@@ -21340,7 +21417,7 @@
       </c>
       <c r="AO35" s="63"/>
     </row>
-    <row r="36" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="18"/>
       <c r="C36" s="40"/>
       <c r="D36" s="41" t="s">
@@ -21456,7 +21533,7 @@
       </c>
       <c r="AO36" s="63"/>
     </row>
-    <row r="37" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="18"/>
       <c r="C37" s="40"/>
       <c r="D37" s="41" t="s">
@@ -21572,7 +21649,7 @@
       </c>
       <c r="AO37" s="63"/>
     </row>
-    <row r="38" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="18"/>
       <c r="C38" s="40"/>
       <c r="D38" s="41" t="s">
@@ -21688,7 +21765,7 @@
       </c>
       <c r="AO38" s="63"/>
     </row>
-    <row r="39" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="18"/>
       <c r="C39" s="40"/>
       <c r="D39" s="41" t="s">
@@ -21803,7 +21880,7 @@
         <v>38.398438761085004</v>
       </c>
     </row>
-    <row r="40" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="18"/>
       <c r="C40" s="40"/>
       <c r="D40" s="41"/>
@@ -21844,7 +21921,7 @@
       <c r="AM40" s="38"/>
       <c r="AN40" s="44"/>
     </row>
-    <row r="41" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="18">
         <v>2</v>
       </c>
@@ -21961,7 +22038,7 @@
         <v>30.910596855818319</v>
       </c>
     </row>
-    <row r="42" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="18"/>
       <c r="C42" s="23"/>
       <c r="D42" s="14"/>
@@ -22002,7 +22079,7 @@
       <c r="AM42" s="38"/>
       <c r="AN42" s="42"/>
     </row>
-    <row r="43" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="18">
         <v>3</v>
       </c>
@@ -22119,7 +22196,7 @@
         <v>4.6835168658954824</v>
       </c>
     </row>
-    <row r="44" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="47"/>
       <c r="C44" s="48" t="s">
         <v>37</v>
@@ -22234,7 +22311,7 @@
         <v>5.4720451819907137</v>
       </c>
     </row>
-    <row r="45" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="50"/>
       <c r="C45" s="51" t="s">
         <v>38</v>
@@ -22349,7 +22426,7 @@
         <v>3.0118</v>
       </c>
     </row>
-    <row r="46" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="52"/>
       <c r="C46" s="48" t="s">
         <v>39</v>
@@ -22483,7 +22560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:AJ46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -22494,29 +22571,29 @@
       <selection pane="bottomRight" activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="9" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="10.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="10.109375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="13" max="14" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" hidden="1" customWidth="1"/>
     <col min="16" max="19" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="11" hidden="1" customWidth="1"/>
     <col min="21" max="24" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="26" max="29" width="9.140625" outlineLevel="1"/>
-    <col min="30" max="30" width="10.85546875" customWidth="1"/>
-    <col min="31" max="34" width="8.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="10.85546875" customWidth="1"/>
+    <col min="25" max="25" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="26" max="29" width="9.109375" outlineLevel="1"/>
+    <col min="30" max="30" width="10.88671875" customWidth="1"/>
+    <col min="31" max="34" width="8.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B1" s="70" t="s">
         <v>40</v>
       </c>
@@ -22544,7 +22621,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>50</v>
       </c>
@@ -22572,7 +22649,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>51</v>
       </c>
@@ -22600,7 +22677,7 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B4" s="71" t="s">
         <v>0</v>
       </c>
@@ -22652,7 +22729,7 @@
       <c r="AH4" s="69"/>
       <c r="AI4" s="69"/>
     </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B5" s="72"/>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
@@ -22748,7 +22825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -22784,7 +22861,7 @@
       <c r="AH6" s="9"/>
       <c r="AI6" s="10"/>
     </row>
-    <row r="7" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
@@ -22822,7 +22899,7 @@
       <c r="AH7" s="17"/>
       <c r="AI7" s="14"/>
     </row>
-    <row r="8" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="18">
         <v>1</v>
       </c>
@@ -22924,7 +23001,7 @@
         <v>4.4074999999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="18">
         <v>2</v>
       </c>
@@ -23026,7 +23103,7 @@
         <v>61.91</v>
       </c>
     </row>
-    <row r="10" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18">
         <v>3</v>
       </c>
@@ -23128,7 +23205,7 @@
         <v>0.58999999999999986</v>
       </c>
     </row>
-    <row r="11" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="18">
         <v>4</v>
       </c>
@@ -23230,7 +23307,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18"/>
       <c r="C12" s="23"/>
       <c r="D12" s="14"/>
@@ -23266,7 +23343,7 @@
       <c r="AH12" s="24"/>
       <c r="AI12" s="25"/>
     </row>
-    <row r="13" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -23304,7 +23381,7 @@
       <c r="AH13" s="16"/>
       <c r="AI13" s="17"/>
     </row>
-    <row r="14" spans="2:35" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:35" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="18">
         <v>1</v>
       </c>
@@ -23406,7 +23483,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="15" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="18">
         <v>1</v>
       </c>
@@ -23508,7 +23585,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="18">
         <v>2</v>
       </c>
@@ -23610,7 +23687,7 @@
         <v>14390</v>
       </c>
     </row>
-    <row r="17" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>22</v>
       </c>
@@ -23648,7 +23725,7 @@
       <c r="AH17" s="33"/>
       <c r="AI17" s="24"/>
     </row>
-    <row r="18" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="18">
         <v>1</v>
       </c>
@@ -23688,7 +23765,7 @@
       <c r="AH18" s="24"/>
       <c r="AI18" s="24"/>
     </row>
-    <row r="19" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34"/>
       <c r="C19" s="35" t="s">
         <v>23</v>
@@ -23790,7 +23867,7 @@
         <v>5.0279595440426927</v>
       </c>
     </row>
-    <row r="20" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="18"/>
       <c r="C20" s="40"/>
       <c r="D20" s="41" t="s">
@@ -23890,7 +23967,7 @@
         <v>4.567612919252273</v>
       </c>
     </row>
-    <row r="21" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="18"/>
       <c r="C21" s="40"/>
       <c r="D21" s="41" t="s">
@@ -23990,7 +24067,7 @@
         <v>4.0006856999688978</v>
       </c>
     </row>
-    <row r="22" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="18"/>
       <c r="C22" s="40"/>
       <c r="D22" s="41" t="s">
@@ -24090,7 +24167,7 @@
         <v>7.1190624042447803</v>
       </c>
     </row>
-    <row r="23" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="C23" s="40"/>
       <c r="D23" s="41" t="s">
@@ -24190,7 +24267,7 @@
         <v>9.7464077320717823</v>
       </c>
     </row>
-    <row r="24" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18"/>
       <c r="C24" s="40"/>
       <c r="D24" s="41" t="s">
@@ -24290,7 +24367,7 @@
         <v>8.976932522611424</v>
       </c>
     </row>
-    <row r="25" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="34"/>
       <c r="C25" s="35"/>
       <c r="D25" s="14"/>
@@ -24326,7 +24403,7 @@
       <c r="AH25" s="39"/>
       <c r="AI25" s="25"/>
     </row>
-    <row r="26" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="18"/>
       <c r="C26" s="35" t="s">
         <v>23</v>
@@ -24429,7 +24506,7 @@
       </c>
       <c r="AJ26" s="64"/>
     </row>
-    <row r="27" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="18"/>
       <c r="C27" s="40"/>
       <c r="D27" s="41" t="s">
@@ -24530,7 +24607,7 @@
       </c>
       <c r="AJ27" s="64"/>
     </row>
-    <row r="28" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="18"/>
       <c r="C28" s="40"/>
       <c r="D28" s="41" t="s">
@@ -24631,7 +24708,7 @@
       </c>
       <c r="AJ28" s="64"/>
     </row>
-    <row r="29" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="18"/>
       <c r="C29" s="40"/>
       <c r="D29" s="41" t="s">
@@ -24732,7 +24809,7 @@
       </c>
       <c r="AJ29" s="64"/>
     </row>
-    <row r="30" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="18"/>
       <c r="C30" s="40"/>
       <c r="D30" s="41" t="s">
@@ -24833,7 +24910,7 @@
       </c>
       <c r="AJ30" s="64"/>
     </row>
-    <row r="31" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="18"/>
       <c r="C31" s="40"/>
       <c r="D31" s="41" t="s">
@@ -24934,7 +25011,7 @@
       </c>
       <c r="AJ31" s="64"/>
     </row>
-    <row r="32" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
       <c r="C32" s="40"/>
       <c r="D32" s="41"/>
@@ -24971,7 +25048,7 @@
       <c r="AI32" s="37"/>
       <c r="AJ32" s="2"/>
     </row>
-    <row r="33" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18"/>
       <c r="C33" s="35" t="s">
         <v>23</v>
@@ -25074,7 +25151,7 @@
       </c>
       <c r="AJ33" s="63"/>
     </row>
-    <row r="34" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18"/>
       <c r="C34" s="40"/>
       <c r="D34" s="41" t="s">
@@ -25175,7 +25252,7 @@
       </c>
       <c r="AJ34" s="63"/>
     </row>
-    <row r="35" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18"/>
       <c r="C35" s="40"/>
       <c r="D35" s="41" t="s">
@@ -25276,7 +25353,7 @@
       </c>
       <c r="AJ35" s="63"/>
     </row>
-    <row r="36" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="18"/>
       <c r="C36" s="40"/>
       <c r="D36" s="41" t="s">
@@ -25377,7 +25454,7 @@
       </c>
       <c r="AJ36" s="63"/>
     </row>
-    <row r="37" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="18"/>
       <c r="C37" s="40"/>
       <c r="D37" s="41" t="s">
@@ -25478,7 +25555,7 @@
       </c>
       <c r="AJ37" s="63"/>
     </row>
-    <row r="38" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="18"/>
       <c r="C38" s="40"/>
       <c r="D38" s="41" t="s">
@@ -25579,7 +25656,7 @@
       </c>
       <c r="AJ38" s="63"/>
     </row>
-    <row r="39" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="18"/>
       <c r="C39" s="40"/>
       <c r="D39" s="41" t="s">
@@ -25679,7 +25756,7 @@
         <v>34.828192711067743</v>
       </c>
     </row>
-    <row r="40" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="18"/>
       <c r="C40" s="40"/>
       <c r="D40" s="41"/>
@@ -25715,7 +25792,7 @@
       <c r="AH40" s="38"/>
       <c r="AI40" s="44"/>
     </row>
-    <row r="41" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="18">
         <v>2</v>
       </c>
@@ -25817,7 +25894,7 @@
         <v>31.252710167632411</v>
       </c>
     </row>
-    <row r="42" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="18"/>
       <c r="C42" s="23"/>
       <c r="D42" s="14"/>
@@ -25853,7 +25930,7 @@
       <c r="AH42" s="38"/>
       <c r="AI42" s="42"/>
     </row>
-    <row r="43" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="18">
         <v>3</v>
       </c>
@@ -25955,7 +26032,7 @@
         <v>3.0371230721587406</v>
       </c>
     </row>
-    <row r="44" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="47"/>
       <c r="C44" s="48" t="s">
         <v>37</v>
@@ -26055,7 +26132,7 @@
         <v>2.9747526899798755</v>
       </c>
     </row>
-    <row r="45" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="50"/>
       <c r="C45" s="51" t="s">
         <v>38</v>
@@ -26155,7 +26232,7 @@
         <v>2.7658</v>
       </c>
     </row>
-    <row r="46" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="52"/>
       <c r="C46" s="48" t="s">
         <v>39</v>
@@ -26273,7 +26350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:AJ46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -26284,29 +26361,29 @@
       <selection pane="bottomRight" activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="9" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="10.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="10.109375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="13" max="14" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" hidden="1" customWidth="1"/>
     <col min="16" max="19" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="11" hidden="1" customWidth="1"/>
     <col min="21" max="24" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="26" max="29" width="9.140625" outlineLevel="1"/>
-    <col min="30" max="30" width="10.85546875" customWidth="1"/>
-    <col min="31" max="34" width="8.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="10.85546875" customWidth="1"/>
+    <col min="25" max="25" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="26" max="29" width="9.109375" outlineLevel="1"/>
+    <col min="30" max="30" width="10.88671875" customWidth="1"/>
+    <col min="31" max="34" width="8.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B1" s="70" t="s">
         <v>40</v>
       </c>
@@ -26334,7 +26411,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>48</v>
       </c>
@@ -26362,7 +26439,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>49</v>
       </c>
@@ -26390,7 +26467,7 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B4" s="71" t="s">
         <v>0</v>
       </c>
@@ -26442,7 +26519,7 @@
       <c r="AH4" s="69"/>
       <c r="AI4" s="69"/>
     </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B5" s="72"/>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
@@ -26538,7 +26615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -26574,7 +26651,7 @@
       <c r="AH6" s="9"/>
       <c r="AI6" s="10"/>
     </row>
-    <row r="7" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
@@ -26612,7 +26689,7 @@
       <c r="AH7" s="17"/>
       <c r="AI7" s="14"/>
     </row>
-    <row r="8" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="18">
         <v>1</v>
       </c>
@@ -26714,7 +26791,7 @@
         <v>4.3149999999999995</v>
       </c>
     </row>
-    <row r="9" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="18">
         <v>2</v>
       </c>
@@ -26816,7 +26893,7 @@
         <v>61.91</v>
       </c>
     </row>
-    <row r="10" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18">
         <v>3</v>
       </c>
@@ -26918,7 +26995,7 @@
         <v>0.22750000000000004</v>
       </c>
     </row>
-    <row r="11" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="18">
         <v>4</v>
       </c>
@@ -27020,7 +27097,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18"/>
       <c r="C12" s="23"/>
       <c r="D12" s="14"/>
@@ -27056,7 +27133,7 @@
       <c r="AH12" s="24"/>
       <c r="AI12" s="25"/>
     </row>
-    <row r="13" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -27094,7 +27171,7 @@
       <c r="AH13" s="16"/>
       <c r="AI13" s="17"/>
     </row>
-    <row r="14" spans="2:35" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:35" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="18">
         <v>1</v>
       </c>
@@ -27196,7 +27273,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="15" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="18">
         <v>1</v>
       </c>
@@ -27298,7 +27375,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="18">
         <v>2</v>
       </c>
@@ -27400,7 +27477,7 @@
         <v>14390</v>
       </c>
     </row>
-    <row r="17" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>22</v>
       </c>
@@ -27438,7 +27515,7 @@
       <c r="AH17" s="33"/>
       <c r="AI17" s="24"/>
     </row>
-    <row r="18" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="18">
         <v>1</v>
       </c>
@@ -27478,7 +27555,7 @@
       <c r="AH18" s="24"/>
       <c r="AI18" s="24"/>
     </row>
-    <row r="19" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34"/>
       <c r="C19" s="35" t="s">
         <v>23</v>
@@ -27580,7 +27657,7 @@
         <v>5.0227900133342773</v>
       </c>
     </row>
-    <row r="20" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="18"/>
       <c r="C20" s="40"/>
       <c r="D20" s="41" t="s">
@@ -27680,7 +27757,7 @@
         <v>4.567612919252273</v>
       </c>
     </row>
-    <row r="21" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="18"/>
       <c r="C21" s="40"/>
       <c r="D21" s="41" t="s">
@@ -27780,7 +27857,7 @@
         <v>4.0006856999688978</v>
       </c>
     </row>
-    <row r="22" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="18"/>
       <c r="C22" s="40"/>
       <c r="D22" s="41" t="s">
@@ -27880,7 +27957,7 @@
         <v>7.1190624042447803</v>
       </c>
     </row>
-    <row r="23" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="C23" s="40"/>
       <c r="D23" s="41" t="s">
@@ -27980,7 +28057,7 @@
         <v>9.7163177065011865</v>
       </c>
     </row>
-    <row r="24" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18"/>
       <c r="C24" s="40"/>
       <c r="D24" s="41" t="s">
@@ -28080,7 +28157,7 @@
         <v>8.941654166174672</v>
       </c>
     </row>
-    <row r="25" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="34"/>
       <c r="C25" s="35"/>
       <c r="D25" s="14"/>
@@ -28116,7 +28193,7 @@
       <c r="AH25" s="39"/>
       <c r="AI25" s="25"/>
     </row>
-    <row r="26" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="18"/>
       <c r="C26" s="35" t="s">
         <v>23</v>
@@ -28219,7 +28296,7 @@
       </c>
       <c r="AJ26" s="64"/>
     </row>
-    <row r="27" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="18"/>
       <c r="C27" s="40"/>
       <c r="D27" s="41" t="s">
@@ -28320,7 +28397,7 @@
       </c>
       <c r="AJ27" s="64"/>
     </row>
-    <row r="28" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="18"/>
       <c r="C28" s="40"/>
       <c r="D28" s="41" t="s">
@@ -28421,7 +28498,7 @@
       </c>
       <c r="AJ28" s="64"/>
     </row>
-    <row r="29" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="18"/>
       <c r="C29" s="40"/>
       <c r="D29" s="41" t="s">
@@ -28522,7 +28599,7 @@
       </c>
       <c r="AJ29" s="64"/>
     </row>
-    <row r="30" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="18"/>
       <c r="C30" s="40"/>
       <c r="D30" s="41" t="s">
@@ -28623,7 +28700,7 @@
       </c>
       <c r="AJ30" s="64"/>
     </row>
-    <row r="31" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="18"/>
       <c r="C31" s="40"/>
       <c r="D31" s="41" t="s">
@@ -28724,7 +28801,7 @@
       </c>
       <c r="AJ31" s="64"/>
     </row>
-    <row r="32" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
       <c r="C32" s="40"/>
       <c r="D32" s="41"/>
@@ -28761,7 +28838,7 @@
       <c r="AI32" s="37"/>
       <c r="AJ32" s="2"/>
     </row>
-    <row r="33" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18"/>
       <c r="C33" s="35" t="s">
         <v>23</v>
@@ -28864,7 +28941,7 @@
       </c>
       <c r="AJ33" s="63"/>
     </row>
-    <row r="34" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18"/>
       <c r="C34" s="40"/>
       <c r="D34" s="41" t="s">
@@ -28965,7 +29042,7 @@
       </c>
       <c r="AJ34" s="63"/>
     </row>
-    <row r="35" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18"/>
       <c r="C35" s="40"/>
       <c r="D35" s="41" t="s">
@@ -29066,7 +29143,7 @@
       </c>
       <c r="AJ35" s="63"/>
     </row>
-    <row r="36" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="18"/>
       <c r="C36" s="40"/>
       <c r="D36" s="41" t="s">
@@ -29167,7 +29244,7 @@
       </c>
       <c r="AJ36" s="63"/>
     </row>
-    <row r="37" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="18"/>
       <c r="C37" s="40"/>
       <c r="D37" s="41" t="s">
@@ -29268,7 +29345,7 @@
       </c>
       <c r="AJ37" s="63"/>
     </row>
-    <row r="38" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="18"/>
       <c r="C38" s="40"/>
       <c r="D38" s="41" t="s">
@@ -29369,7 +29446,7 @@
       </c>
       <c r="AJ38" s="63"/>
     </row>
-    <row r="39" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="18"/>
       <c r="C39" s="40"/>
       <c r="D39" s="41" t="s">
@@ -29469,7 +29546,7 @@
         <v>27.611991927043874</v>
       </c>
     </row>
-    <row r="40" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="18"/>
       <c r="C40" s="40"/>
       <c r="D40" s="41"/>
@@ -29505,7 +29582,7 @@
       <c r="AH40" s="38"/>
       <c r="AI40" s="44"/>
     </row>
-    <row r="41" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="18">
         <v>2</v>
       </c>
@@ -29607,7 +29684,7 @@
         <v>31.48400835781587</v>
       </c>
     </row>
-    <row r="42" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="18"/>
       <c r="C42" s="23"/>
       <c r="D42" s="14"/>
@@ -29643,7 +29720,7 @@
       <c r="AH42" s="38"/>
       <c r="AI42" s="42"/>
     </row>
-    <row r="43" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="18">
         <v>3</v>
       </c>
@@ -29745,7 +29822,7 @@
         <v>3.0371230721587406</v>
       </c>
     </row>
-    <row r="44" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="47"/>
       <c r="C44" s="48" t="s">
         <v>37</v>
@@ -29845,7 +29922,7 @@
         <v>2.9454691441389507</v>
       </c>
     </row>
-    <row r="45" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="50"/>
       <c r="C45" s="51" t="s">
         <v>38</v>
@@ -29945,7 +30022,7 @@
         <v>2.6539763113367116</v>
       </c>
     </row>
-    <row r="46" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="52"/>
       <c r="C46" s="48" t="s">
         <v>39</v>
@@ -30063,7 +30140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:AJ46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -30074,29 +30151,29 @@
       <selection pane="bottomRight" activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="9" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="10.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="10.109375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="13" max="14" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="11.28515625" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.33203125" hidden="1" customWidth="1" collapsed="1"/>
     <col min="16" max="19" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="11" hidden="1" customWidth="1" collapsed="1"/>
     <col min="21" max="24" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="26" max="29" width="9.140625" outlineLevel="1"/>
-    <col min="30" max="30" width="10.85546875" customWidth="1"/>
-    <col min="31" max="34" width="8.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="10.85546875" customWidth="1"/>
+    <col min="25" max="25" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="26" max="29" width="9.109375" outlineLevel="1"/>
+    <col min="30" max="30" width="10.88671875" customWidth="1"/>
+    <col min="31" max="34" width="8.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B1" s="70" t="s">
         <v>40</v>
       </c>
@@ -30124,7 +30201,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
@@ -30152,7 +30229,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>47</v>
       </c>
@@ -30180,7 +30257,7 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B4" s="71" t="s">
         <v>0</v>
       </c>
@@ -30232,7 +30309,7 @@
       <c r="AH4" s="69"/>
       <c r="AI4" s="69"/>
     </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B5" s="72"/>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
@@ -30328,7 +30405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -30364,7 +30441,7 @@
       <c r="AH6" s="9"/>
       <c r="AI6" s="10"/>
     </row>
-    <row r="7" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
@@ -30402,7 +30479,7 @@
       <c r="AH7" s="17"/>
       <c r="AI7" s="14"/>
     </row>
-    <row r="8" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="18">
         <v>1</v>
       </c>
@@ -30504,7 +30581,7 @@
         <v>4.3149999999999995</v>
       </c>
     </row>
-    <row r="9" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="18">
         <v>2</v>
       </c>
@@ -30606,7 +30683,7 @@
         <v>61.91</v>
       </c>
     </row>
-    <row r="10" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18">
         <v>3</v>
       </c>
@@ -30708,7 +30785,7 @@
         <v>0.22750000000000004</v>
       </c>
     </row>
-    <row r="11" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="18">
         <v>4</v>
       </c>
@@ -30810,7 +30887,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18"/>
       <c r="C12" s="23"/>
       <c r="D12" s="14"/>
@@ -30846,7 +30923,7 @@
       <c r="AH12" s="24"/>
       <c r="AI12" s="25"/>
     </row>
-    <row r="13" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -30884,7 +30961,7 @@
       <c r="AH13" s="16"/>
       <c r="AI13" s="17"/>
     </row>
-    <row r="14" spans="2:35" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:35" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="18">
         <v>1</v>
       </c>
@@ -30986,7 +31063,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="15" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="18">
         <v>1</v>
       </c>
@@ -31088,7 +31165,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="18">
         <v>2</v>
       </c>
@@ -31190,7 +31267,7 @@
         <v>14369.999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>22</v>
       </c>
@@ -31228,7 +31305,7 @@
       <c r="AH17" s="33"/>
       <c r="AI17" s="24"/>
     </row>
-    <row r="18" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="18">
         <v>1</v>
       </c>
@@ -31268,7 +31345,7 @@
       <c r="AH18" s="24"/>
       <c r="AI18" s="24"/>
     </row>
-    <row r="19" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34"/>
       <c r="C19" s="35" t="s">
         <v>23</v>
@@ -31370,7 +31447,7 @@
         <v>5.0449965172306488</v>
       </c>
     </row>
-    <row r="20" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="18"/>
       <c r="C20" s="40"/>
       <c r="D20" s="41" t="s">
@@ -31470,7 +31547,7 @@
         <v>4.8422905443767927</v>
       </c>
     </row>
-    <row r="21" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="18"/>
       <c r="C21" s="40"/>
       <c r="D21" s="41" t="s">
@@ -31570,7 +31647,7 @@
         <v>4.1013088001752296</v>
       </c>
     </row>
-    <row r="22" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="18"/>
       <c r="C22" s="40"/>
       <c r="D22" s="41" t="s">
@@ -31670,7 +31747,7 @@
         <v>7.8885860270873742</v>
       </c>
     </row>
-    <row r="23" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="C23" s="40"/>
       <c r="D23" s="41" t="s">
@@ -31770,7 +31847,7 @@
         <v>6.8131171832394255</v>
       </c>
     </row>
-    <row r="24" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18"/>
       <c r="C24" s="40"/>
       <c r="D24" s="41" t="s">
@@ -31870,7 +31947,7 @@
         <v>7.2993701376399045</v>
       </c>
     </row>
-    <row r="25" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="34"/>
       <c r="C25" s="35"/>
       <c r="D25" s="14"/>
@@ -31906,7 +31983,7 @@
       <c r="AH25" s="39"/>
       <c r="AI25" s="25"/>
     </row>
-    <row r="26" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="18"/>
       <c r="C26" s="35" t="s">
         <v>23</v>
@@ -32009,7 +32086,7 @@
       </c>
       <c r="AJ26" s="64"/>
     </row>
-    <row r="27" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="18"/>
       <c r="C27" s="40"/>
       <c r="D27" s="41" t="s">
@@ -32110,7 +32187,7 @@
       </c>
       <c r="AJ27" s="64"/>
     </row>
-    <row r="28" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="18"/>
       <c r="C28" s="40"/>
       <c r="D28" s="41" t="s">
@@ -32211,7 +32288,7 @@
       </c>
       <c r="AJ28" s="64"/>
     </row>
-    <row r="29" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="18"/>
       <c r="C29" s="40"/>
       <c r="D29" s="41" t="s">
@@ -32312,7 +32389,7 @@
       </c>
       <c r="AJ29" s="64"/>
     </row>
-    <row r="30" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="18"/>
       <c r="C30" s="40"/>
       <c r="D30" s="41" t="s">
@@ -32413,7 +32490,7 @@
       </c>
       <c r="AJ30" s="64"/>
     </row>
-    <row r="31" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="18"/>
       <c r="C31" s="40"/>
       <c r="D31" s="41" t="s">
@@ -32514,7 +32591,7 @@
       </c>
       <c r="AJ31" s="64"/>
     </row>
-    <row r="32" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
       <c r="C32" s="40"/>
       <c r="D32" s="41"/>
@@ -32551,7 +32628,7 @@
       <c r="AI32" s="37"/>
       <c r="AJ32" s="2"/>
     </row>
-    <row r="33" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18"/>
       <c r="C33" s="35" t="s">
         <v>23</v>
@@ -32654,7 +32731,7 @@
       </c>
       <c r="AJ33" s="63"/>
     </row>
-    <row r="34" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18"/>
       <c r="C34" s="40"/>
       <c r="D34" s="41" t="s">
@@ -32755,7 +32832,7 @@
       </c>
       <c r="AJ34" s="63"/>
     </row>
-    <row r="35" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18"/>
       <c r="C35" s="40"/>
       <c r="D35" s="41" t="s">
@@ -32856,7 +32933,7 @@
       </c>
       <c r="AJ35" s="63"/>
     </row>
-    <row r="36" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="18"/>
       <c r="C36" s="40"/>
       <c r="D36" s="41" t="s">
@@ -32957,7 +33034,7 @@
       </c>
       <c r="AJ36" s="63"/>
     </row>
-    <row r="37" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="18"/>
       <c r="C37" s="40"/>
       <c r="D37" s="41" t="s">
@@ -33058,7 +33135,7 @@
       </c>
       <c r="AJ37" s="63"/>
     </row>
-    <row r="38" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="18"/>
       <c r="C38" s="40"/>
       <c r="D38" s="41" t="s">
@@ -33159,7 +33236,7 @@
       </c>
       <c r="AJ38" s="63"/>
     </row>
-    <row r="39" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="18"/>
       <c r="C39" s="40"/>
       <c r="D39" s="41" t="s">
@@ -33259,7 +33336,7 @@
         <v>18.098880529420256</v>
       </c>
     </row>
-    <row r="40" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="18"/>
       <c r="C40" s="40"/>
       <c r="D40" s="41"/>
@@ -33295,7 +33372,7 @@
       <c r="AH40" s="38"/>
       <c r="AI40" s="44"/>
     </row>
-    <row r="41" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="18">
         <v>2</v>
       </c>
@@ -33397,7 +33474,7 @@
         <v>32.232575556785655</v>
       </c>
     </row>
-    <row r="42" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="18"/>
       <c r="C42" s="23"/>
       <c r="D42" s="14"/>
@@ -33433,7 +33510,7 @@
       <c r="AH42" s="38"/>
       <c r="AI42" s="42"/>
     </row>
-    <row r="43" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="18">
         <v>3</v>
       </c>
@@ -33535,7 +33612,7 @@
         <v>3.0071230721587403</v>
       </c>
     </row>
-    <row r="44" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="47"/>
       <c r="C44" s="48" t="s">
         <v>37</v>
@@ -33635,7 +33712,7 @@
         <v>2.8746121313884956</v>
       </c>
     </row>
-    <row r="45" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="50"/>
       <c r="C45" s="51" t="s">
         <v>38</v>
@@ -33735,7 +33812,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="46" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:36" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="52"/>
       <c r="C46" s="48" t="s">
         <v>39</v>
